--- a/data/countries_metal_wos.xlsx
+++ b/data/countries_metal_wos.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
         <v>PEOPLES R CHINA</v>
       </c>
       <c r="B2">
-        <v>1393</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>USA</v>
       </c>
       <c r="B3">
-        <v>309</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>INDIA</v>
       </c>
       <c r="B4">
-        <v>135</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>GERMANY</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>SOUTH KOREA</v>
       </c>
       <c r="B6">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -433,71 +433,71 @@
         <v>IRAN</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AUSTRALIA</v>
+        <v>FRANCE</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>CANADA</v>
+        <v>JAPAN</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>FRANCE</v>
+        <v>AUSTRALIA</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>JAPAN</v>
+        <v>ENGLAND</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>ITALY</v>
+        <v>NETHERLANDS</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>NETHERLANDS</v>
+        <v>CANADA</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>RUSSIA</v>
+        <v>ITALY</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>ENGLAND</v>
+        <v>RUSSIA</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -505,15 +505,15 @@
         <v>SPAIN</v>
       </c>
       <c r="B16">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>SAUDI ARABIA</v>
+        <v>PORTUGAL</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -521,39 +521,39 @@
         <v>BELGIUM</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>TAIWAN</v>
+        <v>SINGAPORE</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>POLAND</v>
+        <v>SAUDI ARABIA</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>BRAZIL</v>
+        <v>TAIWAN</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>MALAYSIA</v>
+        <v>SWEDEN</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -561,276 +561,276 @@
         <v>SWITZERLAND</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>PAKISTAN</v>
+        <v>POLAND</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>SINGAPORE</v>
+        <v>MALAYSIA</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>SWEDEN</v>
+        <v>THAILAND</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>THAILAND</v>
+        <v>DENMARK</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>PORTUGAL</v>
+        <v>BRAZIL</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>NIGERIA</v>
+        <v>ISRAEL</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>EGYPT</v>
+        <v>FINLAND</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>TURKIYE</v>
+        <v>EGYPT</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>VIETNAM</v>
+        <v>PAKISTAN</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>CHILE</v>
+        <v>ROMANIA</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>CZECH REPUBLIC</v>
+        <v>AUSTRIA</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>DENMARK</v>
+        <v>CZECH REPUBLIC</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>ISRAEL</v>
+        <v>NIGERIA</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>SOUTH AFRICA</v>
+        <v>TURKEY</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>TURKEY</v>
+        <v>TURKIYE</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>AUSTRIA</v>
+        <v>VIETNAM</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>FINLAND</v>
+        <v>CHILE</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>IRAQ</v>
+        <v>SCOTLAND</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>NORWAY</v>
+        <v>IRELAND</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>QATAR</v>
+        <v>NORWAY</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>SCOTLAND</v>
+        <v>SOUTH AFRICA</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>SLOVENIA</v>
+        <v>UKRAINE</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>U ARAB EMIRATES</v>
+        <v>QATAR</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>ROMANIA</v>
+        <v>U ARAB EMIRATES</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SLOVAKIA</v>
+        <v>GREECE</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>ARGENTINA</v>
+        <v>HUNGARY</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>BANGLADESH</v>
+        <v>IRAQ</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>BOSNIA HERCEG</v>
+        <v>MEXICO</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>CROATIA</v>
+        <v>SLOVENIA</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>HUNGARY</v>
+        <v>LITHUANIA</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>MEXICO</v>
+        <v>NEW ZEALAND</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>NEW ZEALAND</v>
+        <v>UZBEKISTAN</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>SERBIA</v>
+        <v>WALES</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>WALES</v>
+        <v>BANGLADESH</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -841,36 +841,36 @@
         <v>BELARUS</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>CYPRUS</v>
+        <v>CROATIA</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>ETHIOPIA</v>
+        <v>KAZAKHSTAN</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>IRELAND</v>
+        <v>SLOVAKIA</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>LITHUANIA</v>
+        <v>ARGENTINA</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>MOROCCO</v>
+        <v>ARMENIA</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>UKRAINE</v>
+        <v>ESTONIA</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>UZBEKISTAN</v>
+        <v>LUXEMBOURG</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>ARMENIA</v>
+        <v>AZERBAIJAN</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>LUXEMBOURG</v>
+        <v>ETHIOPIA</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -918,39 +918,39 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>AZERBAIJAN</v>
+        <v>INDONESIA</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>COLOMBIA</v>
+        <v>KUWAIT</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>ESTONIA</v>
+        <v>MOROCCO</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>GREECE</v>
+        <v>SERBIA</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>INDONESIA</v>
+        <v>BOSNIA HERCEG</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>KAZAKHSTAN</v>
+        <v>BOTSWANA</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>KENYA</v>
+        <v>BULGARIA</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>KUWAIT</v>
+        <v>CYPRUS</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>LATVIA</v>
+        <v>GEORGIA</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>PERU</v>
+        <v>KENYA</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>SRI LANKA</v>
+        <v>MAURITIUS</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>TUNISIA</v>
+        <v>PERU</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1014,15 +1014,31 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>ZAMBIA</v>
+        <v>PHILIPPINES</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>SRI LANKA</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B80"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B82"/>
   </ignoredErrors>
 </worksheet>
 </file>